--- a/Graph.xlsx
+++ b/Graph.xlsx
@@ -16,8 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_20171025_000939" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="_20171026_112849_lin" localSheetId="0">Sheet1!$A$3:$D$12</definedName>
-    <definedName name="_20171026_112958_diff" localSheetId="0">Sheet1!$A$14:$D$23</definedName>
+    <definedName name="_20171026_145038_lin" localSheetId="0">Sheet1!$A$3:$D$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,18 +29,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="20171026-112849_lin" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="852" sourceFile="C:\Users\Acer\Desktop\CryptoAnalysis\20171026-112849_lin.csv" decimal="," thousands=" " comma="1">
-      <textFields count="4">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="2" name="20171026-112958_diff" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="852" sourceFile="C:\Users\Acer\Desktop\CryptoAnalysis\20171026-112958_diff.csv" decimal="," thousands=" " comma="1">
+  <connection id="1" name="20171026-145038_lin" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="C:\Users\Acer\Desktop\CryptoAnalysis\20171026-145038_lin.csv" decimal="," thousands=" " comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -54,12 +43,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>lin</t>
-  </si>
-  <si>
-    <t>diff</t>
   </si>
   <si>
     <t>Identifikovaný odlišovač</t>
@@ -362,34 +348,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.499</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48649999999999999</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51633333333333298</c:v>
+                  <c:v>-3.6666666666666601E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50949999999999995</c:v>
+                  <c:v>2.2499999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50460000000000005</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.50483333333333302</c:v>
+                  <c:v>-3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.504285714285714</c:v>
+                  <c:v>-2.57142857142857E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50137500000000002</c:v>
+                  <c:v>-3.1250000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49866666666666598</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.49690000000000001</c:v>
+                  <c:v>4.1000000000000003E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -474,34 +460,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.47899999999999998</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50549999999999995</c:v>
+                  <c:v>9.4999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51366666666666605</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51075000000000004</c:v>
+                  <c:v>5.0000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50239999999999996</c:v>
+                  <c:v>2.3999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51166666666666605</c:v>
+                  <c:v>-1.16666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.496714285714285</c:v>
+                  <c:v>6.5714285714285701E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50724999999999998</c:v>
+                  <c:v>-0.01</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.50966666666666605</c:v>
+                  <c:v>2.2222222222222199E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50319999999999998</c:v>
+                  <c:v>3.5999999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -586,34 +572,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.47299999999999998</c:v>
+                  <c:v>-1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>-6.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51900000000000002</c:v>
+                  <c:v>1.26666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49049999999999999</c:v>
+                  <c:v>-6.2500000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51219999999999999</c:v>
+                  <c:v>-1.0800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.50583333333333302</c:v>
+                  <c:v>4.6666666666666601E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.49342857142857099</c:v>
+                  <c:v>-6.8571428571428499E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50937500000000002</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.50677777777777699</c:v>
+                  <c:v>-6.4444444444444401E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50309999999999999</c:v>
+                  <c:v>-5.7999999999999996E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,11 +628,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="257509160"/>
-        <c:axId val="257508768"/>
+        <c:axId val="349340008"/>
+        <c:axId val="349341184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="257509160"/>
+        <c:axId val="349340008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +722,7 @@
             <a:endParaRPr lang="sk-SK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257508768"/>
+        <c:crossAx val="349341184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -744,7 +730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257508768"/>
+        <c:axId val="349341184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,740 +845,7 @@
             <a:endParaRPr lang="sk-SK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257509160"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sk-SK"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sk-SK"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sk-SK" baseline="0"/>
-              <a:t>Diferenciálna analýza</a:t>
-            </a:r>
-            <a:endParaRPr lang="sk-SK"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sk-SK"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Identifikovaný odlišovač</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$14:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.7E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8142857142857101E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.8125000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.7E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.98E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Alternatívny odlišovač</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$14:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0000000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.25E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1111111111111099E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Random</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent3">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$14:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:smooth val="0"/>
-        <c:axId val="350907320"/>
-        <c:axId val="350907712"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="350907320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="sk-SK"/>
-                  <a:t>Počet P-C párov</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="sk-SK"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sk-SK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="350907712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="350907712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="sk-SK"/>
-                  <a:t>Pravdepodobnosť</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="sk-SK"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sk-SK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="350907320"/>
+        <c:crossAx val="349340008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1715,596 +968,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2885,47 +1549,11 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="20171026-112958_diff" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="20171026-112849_lin" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="20171026-145038_lin" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3194,12 +1822,14 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W43" sqref="W43"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="19" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3210,27 +1840,27 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>0.499</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="B3" s="2">
-        <v>0.47899999999999998</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C3" s="2">
-        <v>0.47299999999999998</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="D3" s="2">
         <v>1000</v>
@@ -3238,13 +1868,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.48649999999999999</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.50549999999999995</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="C4" s="1">
-        <v>0.5</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
       <c r="D4" s="1">
         <v>2000</v>
@@ -3252,13 +1882,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.51633333333333298</v>
+        <v>-3.6666666666666601E-3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.51366666666666605</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C5" s="1">
-        <v>0.51900000000000002</v>
+        <v>1.26666666666666E-2</v>
       </c>
       <c r="D5" s="1">
         <v>3000</v>
@@ -3266,13 +1896,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.50949999999999995</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="B6" s="1">
-        <v>0.51075000000000004</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C6" s="1">
-        <v>0.49049999999999999</v>
+        <v>-6.2500000000000003E-3</v>
       </c>
       <c r="D6" s="1">
         <v>4000</v>
@@ -3280,13 +1910,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0.50460000000000005</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="B7" s="1">
-        <v>0.50239999999999996</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="C7" s="1">
-        <v>0.51219999999999999</v>
+        <v>-1.0800000000000001E-2</v>
       </c>
       <c r="D7" s="1">
         <v>5000</v>
@@ -3294,13 +1924,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0.50483333333333302</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="B8" s="1">
-        <v>0.51166666666666605</v>
+        <v>-1.16666666666666E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>0.50583333333333302</v>
+        <v>4.6666666666666601E-3</v>
       </c>
       <c r="D8" s="1">
         <v>6000</v>
@@ -3308,13 +1938,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0.504285714285714</v>
+        <v>-2.57142857142857E-3</v>
       </c>
       <c r="B9" s="1">
-        <v>0.496714285714285</v>
+        <v>6.5714285714285701E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>0.49342857142857099</v>
+        <v>-6.8571428571428499E-3</v>
       </c>
       <c r="D9" s="1">
         <v>7000</v>
@@ -3322,13 +1952,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0.50137500000000002</v>
+        <v>-3.1250000000000002E-3</v>
       </c>
       <c r="B10" s="1">
-        <v>0.50724999999999998</v>
+        <v>-0.01</v>
       </c>
       <c r="C10" s="1">
-        <v>0.50937500000000002</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D10" s="1">
         <v>8000</v>
@@ -3336,13 +1966,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0.49866666666666598</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="B11" s="1">
-        <v>0.50966666666666605</v>
+        <v>2.2222222222222199E-4</v>
       </c>
       <c r="C11" s="1">
-        <v>0.50677777777777699</v>
+        <v>-6.4444444444444401E-3</v>
       </c>
       <c r="D11" s="1">
         <v>9000</v>
@@ -3350,162 +1980,77 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>0.49690000000000001</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="B12" s="1">
-        <v>0.50319999999999998</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>0.50309999999999999</v>
+        <v>-5.7999999999999996E-3</v>
       </c>
       <c r="D12" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2.7E-2</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1000</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="B15" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2000</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3000</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2.5749999999999999E-2</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4000</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2.6200000000000001E-2</v>
-      </c>
-      <c r="B18" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5000</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>6000</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2.8142857142857101E-2</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>7000</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2.8125000000000001E-2</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.25E-4</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>8000</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2.7E-2</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1.1111111111111099E-4</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>9000</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>2.98E-2</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>10000</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
